--- a/app/src/main/assets/reportTemplate.xlsx
+++ b/app/src/main/assets/reportTemplate.xlsx
@@ -1,19 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hack\new\Leaders-of-Transformation-09-NEUROPHILES-RE\app\src\main\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422AE363-5BE2-41FF-A4A6-97E13BB42C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8620"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScoreMap" sheetId="1" r:id="rId1"/>
     <sheet name="SolutionEvaluation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -178,7 +193,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,9 +330,7 @@
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -358,6 +371,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -630,52 +645,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
@@ -683,7 +698,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -696,8 +711,10 @@
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="E2" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="1">
@@ -711,7 +728,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -724,8 +741,8 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5">
+      <c r="E3" s="19"/>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -739,7 +756,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -752,8 +769,8 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5">
+      <c r="E4" s="19"/>
+      <c r="F4" s="3">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -767,7 +784,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -780,8 +797,8 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5">
+      <c r="E5" s="19"/>
+      <c r="F5" s="3">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -795,7 +812,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -808,8 +825,8 @@
       <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5">
+      <c r="E6" s="19"/>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -828,7 +845,7 @@
         <v>1.0410094637223974</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +858,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5">
+      <c r="E7" s="19"/>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -856,7 +873,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -869,8 +886,8 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5">
+      <c r="E8" s="19"/>
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -884,7 +901,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -897,8 +914,8 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="5">
+      <c r="E9" s="19"/>
+      <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -912,7 +929,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +942,8 @@
       <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5">
+      <c r="E10" s="19"/>
+      <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -940,7 +957,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -953,8 +970,8 @@
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5">
+      <c r="E11" s="19"/>
+      <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="1">
@@ -968,7 +985,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -981,8 +998,8 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="E12" s="20"/>
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -996,7 +1013,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1009,8 +1026,8 @@
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3">
+      <c r="E13" s="20"/>
+      <c r="F13" s="2">
         <v>5</v>
       </c>
       <c r="G13" s="1">
@@ -1024,7 +1041,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1037,8 +1054,8 @@
       <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="5">
+      <c r="E14" s="19"/>
+      <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -1052,7 +1069,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1065,8 +1082,8 @@
       <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="5">
+      <c r="E15" s="19"/>
+      <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1080,7 +1097,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1093,8 +1110,8 @@
       <c r="D16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3">
+      <c r="E16" s="20"/>
+      <c r="F16" s="2">
         <v>2</v>
       </c>
       <c r="G16" s="1">
@@ -1108,7 +1125,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -1121,8 +1138,8 @@
       <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="5">
+      <c r="E17" s="19"/>
+      <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1132,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1145,8 +1162,8 @@
       <c r="D18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5">
+      <c r="E18" s="19"/>
+      <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1156,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1169,8 +1186,8 @@
       <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5">
+      <c r="E19" s="19"/>
+      <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1180,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1193,8 +1210,8 @@
       <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5">
+      <c r="E20" s="19"/>
+      <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1204,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1217,8 +1234,8 @@
       <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="5">
+      <c r="E21" s="19"/>
+      <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1228,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1241,8 +1258,8 @@
       <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="5">
+      <c r="E22" s="19"/>
+      <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1252,7 +1269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1265,8 +1282,8 @@
       <c r="D23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="5">
+      <c r="E23" s="19"/>
+      <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1276,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -1289,8 +1306,8 @@
       <c r="D24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="5">
+      <c r="E24" s="19"/>
+      <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1300,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -1313,8 +1330,8 @@
       <c r="D25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="5">
+      <c r="E25" s="19"/>
+      <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1324,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
@@ -1337,8 +1354,8 @@
       <c r="D26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5">
+      <c r="E26" s="19"/>
+      <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -1348,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
@@ -1361,8 +1378,8 @@
       <c r="D27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5">
+      <c r="E27" s="19"/>
+      <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="1">
@@ -1372,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
@@ -1385,8 +1402,8 @@
       <c r="D28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5">
+      <c r="E28" s="19"/>
+      <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -1402,287 +1419,287 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="10" customWidth="1"/>
-    <col min="2" max="5" width="6.36328125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="19" customWidth="1"/>
-    <col min="7" max="10" width="5.54296875" style="19" customWidth="1"/>
-    <col min="11" max="11" width="8.08984375" style="19" customWidth="1"/>
-    <col min="12" max="16384" width="8.90625" style="10"/>
+    <col min="1" max="1" width="28" style="8" customWidth="1"/>
+    <col min="2" max="5" width="6.33203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="17" customWidth="1"/>
+    <col min="7" max="10" width="5.5546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="11" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>0.5</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <f>B3+10%</f>
         <v>0.6</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="11">
         <f>B3-5%</f>
         <v>0.45</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <f>D3+7%</f>
         <v>0.52</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <f>AVERAGE(B3:E3)</f>
         <v>0.51750000000000007</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="G3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>0.9</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <f t="shared" ref="C4:C7" si="0">B4+10%</f>
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <f t="shared" ref="D4:D7" si="1">B4-5%</f>
         <v>0.85</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E7" si="2">D4+7%</f>
         <v>0.91999999999999993</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <f t="shared" ref="F4:F7" si="3">AVERAGE(B4:E4)</f>
         <v>0.91749999999999998</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="G4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>0.1</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f t="shared" si="2"/>
         <v>0.12000000000000001</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <f t="shared" si="3"/>
         <v>0.11750000000000001</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="G5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>0.8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="11">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="11">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f t="shared" si="2"/>
         <v>0.82000000000000006</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <f t="shared" si="3"/>
         <v>0.81750000000000012</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="G6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>0.95</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f t="shared" si="2"/>
         <v>0.97</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <f t="shared" si="3"/>
         <v>0.96750000000000003</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="G7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="12">
         <f>AVERAGE(F3:F7)</f>
         <v>0.66750000000000009</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
